--- a/starterkit/tyranoscript/__PREFIX__Control.xlsx
+++ b/starterkit/tyranoscript/__PREFIX__Control.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2581C2D-6C15-4F43-8EF3-C8E99DE8BB15}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45AD88C-E984-4AAD-8221-9C45DC6855CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="285" windowWidth="23310" windowHeight="17190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>thumbnail</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>bgx</t>
-  </si>
-  <si>
-    <t>role_button</t>
   </si>
   <si>
     <t>link</t>
@@ -687,13 +684,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
@@ -902,9 +899,7 @@
     </row>
     <row r="22" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A22" s="10"/>
-      <c r="B22" s="10" t="s">
-        <v>36</v>
-      </c>
+      <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -918,7 +913,9 @@
     </row>
     <row r="24" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -926,7 +923,7 @@
     <row r="25" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -934,16 +931,16 @@
     </row>
     <row r="26" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A26" s="10"/>
-      <c r="B26" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
+      <c r="B27" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -959,36 +956,34 @@
     </row>
     <row r="29" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A29" s="10"/>
-      <c r="B29" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
+      <c r="B30" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+      <c r="E30" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="31" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A32" s="10"/>
-      <c r="B32" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -1002,91 +997,84 @@
     </row>
     <row r="34" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
+      <c r="B34" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="E34" s="10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="35" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A35" s="10"/>
-      <c r="B35" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1">
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="1:5" s="11" customFormat="1">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="1:5" s="11" customFormat="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+    <row r="37" spans="1:5" s="13" customFormat="1">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="38" spans="1:5" s="13" customFormat="1">
       <c r="A38" s="12"/>
       <c r="B38" s="12" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" s="13" customFormat="1">
       <c r="A39" s="12"/>
       <c r="B39" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
     </row>
-    <row r="40" spans="1:5" s="13" customFormat="1">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-    </row>
-    <row r="41" spans="1:5" s="15" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="1:5" s="16" customFormat="1"/>
+    <row r="40" spans="1:5" s="15" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5" s="16" customFormat="1"/>
+    <row r="42" spans="1:5" s="16" customFormat="1">
+      <c r="B42" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="43" spans="1:5" s="16" customFormat="1">
       <c r="B43" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="16" customFormat="1">
       <c r="B44" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="16" customFormat="1">
-      <c r="B45" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D44" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E44" s="16" t="s">
         <v>22</v>
       </c>
     </row>

--- a/starterkit/tyranoscript/__PREFIX__Control.xlsx
+++ b/starterkit/tyranoscript/__PREFIX__Control.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45AD88C-E984-4AAD-8221-9C45DC6855CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AACB15-1E18-4F79-87D1-63388AE42A8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="285" windowWidth="23310" windowHeight="17190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4515" yWindow="1170" windowWidth="23310" windowHeight="17190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>thumbnail</t>
   </si>
@@ -141,6 +141,10 @@
   </si>
   <si>
     <t>branch-cmt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>prewait</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -690,7 +694,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
@@ -990,7 +994,9 @@
     </row>
     <row r="33" spans="1:5" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
